--- a/Progres Tugas Akhir.xlsx
+++ b/Progres Tugas Akhir.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>No</t>
   </si>
@@ -72,6 +72,39 @@
   </si>
   <si>
     <t>https://journal.uniku.ac.id/index.php/JESMath/article/view/5436/0</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>kita mempersentasikan 5 artikel di depan kelas pada saat pembelajaran dan kita mengambil 1 artikel sesuai dengan saran yang diberikan Pak Lenox.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>Kamis</t>
+  </si>
+  <si>
+    <t>kita memahami lebih dalam dan mengerjakan hingga langkah ke 3</t>
+  </si>
+  <si>
+    <t>kita melanjutkan membuat power point hingga hampir selesai.</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>Selasa</t>
+  </si>
+  <si>
+    <t>kita menyelesaikan power point hinga selesai dan merapikan power point tersebut.</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>kita latihan  persentasi yang nantinya akan di nilai sebagai Tugas Akhir.</t>
   </si>
 </sst>
 </file>
@@ -369,7 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -399,27 +432,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -428,6 +455,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,8 +468,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -725,7 +761,7 @@
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -739,18 +775,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickBot="1">
       <c r="A3" s="4" t="s">
@@ -772,7 +808,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="8">
-        <v>45339</v>
+        <v>45705</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>8</v>
@@ -782,370 +818,410 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="42.75" customHeight="1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="12">
-        <v>45341</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="24">
+        <v>45707</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="15" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="15" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="15" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="15" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="15" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="14"/>
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="11">
+        <v>45714</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="14"/>
+      <c r="A12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="11">
+        <v>45715</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="15">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" ht="15">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="14"/>
+      <c r="A13" s="14">
+        <v>5</v>
+      </c>
+      <c r="B13" s="11">
+        <v>45719</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30">
+      <c r="A14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="11">
+        <v>45751</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="14"/>
+      <c r="A15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="11">
+        <v>45782</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="15">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="14"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" ht="15">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="14"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" ht="15">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="14"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="15">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="14"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" ht="15">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="14"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" ht="15">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="14"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4" ht="15">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="14"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" ht="15">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="14"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4" ht="15">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="14"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" ht="15">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="14"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" ht="15">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="14"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="15">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="14"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="15">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="14"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="15">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="14"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" ht="15">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="14"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4" ht="15">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="14"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4" ht="15">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="14"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" ht="15">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="14"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:4" ht="15">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="14"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="12"/>
     </row>
     <row r="35" spans="1:4" ht="15">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="14"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" ht="15">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="14"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4" ht="15">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="14"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="12"/>
     </row>
     <row r="38" spans="1:4" ht="15">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="14"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="12"/>
     </row>
     <row r="39" spans="1:4" ht="15">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="14"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4" ht="15">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="14"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="12"/>
     </row>
     <row r="41" spans="1:4" ht="15">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="14"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="12"/>
     </row>
     <row r="42" spans="1:4" ht="15">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="14"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4" ht="15">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="14"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4" ht="15">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="14"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4" ht="15">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="14"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="12"/>
     </row>
     <row r="46" spans="1:4" ht="15">
-      <c r="A46" s="16"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="14"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4" ht="15">
-      <c r="A47" s="16"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="14"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:4" ht="15">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="14"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:4" ht="15">
-      <c r="A49" s="16"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="14"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="12"/>
     </row>
     <row r="50" spans="1:4" ht="15">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="14"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="12"/>
     </row>
     <row r="51" spans="1:4" ht="15">
-      <c r="A51" s="16"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="14"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4" ht="15">
-      <c r="A52" s="16"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="14"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="12"/>
     </row>
     <row r="53" spans="1:4" ht="15">
-      <c r="A53" s="16"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="14"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:4" ht="15">
-      <c r="A54" s="16"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="14"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4" ht="15">
-      <c r="A55" s="16"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="14"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:4" ht="15">
-      <c r="A56" s="16"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="14"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="12"/>
     </row>
     <row r="57" spans="1:4" ht="15">
-      <c r="A57" s="16"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="14"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="12"/>
     </row>
     <row r="58" spans="1:4" ht="15">
-      <c r="A58" s="16"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="14"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="12"/>
     </row>
     <row r="59" spans="1:4" ht="15">
-      <c r="A59" s="16"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="14"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="12"/>
     </row>
     <row r="60" spans="1:4" ht="15">
-      <c r="A60" s="16"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="14"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="12"/>
     </row>
     <row r="61" spans="1:4" ht="15">
-      <c r="A61" s="16"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="14"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="12"/>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A62" s="18"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="20"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="18"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2"/>
